--- a/calculation/HOCLOOP Calculation/WP2/Task2.2/0 - Resources/output/case_a.xlsx
+++ b/calculation/HOCLOOP Calculation/WP2/Task2.2/0 - Resources/output/case_a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\PycharmProjects\BHEModel2.0\calculation\HOCLOOP Calculation\WP2\Task2.2\0 - Resources\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6EF3F-92D0-448A-9D65-26B19601B814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC5E3B-E4DA-4DC8-A98C-E0BEC6679446}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Reservoir Data</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>°C</t>
-  </si>
-  <si>
-    <t>l_hor</t>
   </si>
   <si>
     <t>T_surf</t>
@@ -178,10 +175,13 @@
     <t>pressure losses</t>
   </si>
   <si>
-    <t>ignored</t>
+    <t>considered</t>
   </si>
   <si>
     <t>heat transfer</t>
+  </si>
+  <si>
+    <t>ignored</t>
   </si>
   <si>
     <t>heating section</t>
@@ -584,13 +584,10 @@
   <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="13.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -635,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>1828.8</v>
+        <v>0.01</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>3</v>
@@ -646,7 +643,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>21.111000000000001</v>
@@ -655,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>3</v>
@@ -666,19 +663,19 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>3.6659990000000003E-2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
@@ -686,19 +683,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1.5129999999999999E-2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0.16170000000000001</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -706,59 +703,59 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2.423</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>2600</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>0.17780000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0.90266999999999997</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2600</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
@@ -766,19 +763,19 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1.03240727721435E-6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>3</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>0.16170000000000001</v>
+        <v>7.535E-2</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>3</v>
@@ -797,15 +794,15 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>7.535E-2</v>
+        <v>0.1507</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>3</v>
@@ -813,85 +810,76 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>0.1507</v>
+        <v>0.1011272416189041</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <v>0.1011272416189041</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>14.72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>999.56405137547233</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>8.8000000000000007</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="b">
         <v>1</v>
@@ -900,37 +888,37 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -963,11 +951,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -993,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>60</v>
@@ -1001,128 +987,366 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>7</v>
+        <v>0.08</v>
       </c>
       <c r="C5">
-        <v>19.85783929119259</v>
+        <v>26.845956244461039</v>
       </c>
       <c r="D5">
-        <v>19.015793518348602</v>
+        <v>19.002990186376181</v>
       </c>
       <c r="E5">
-        <v>190.98959524616859</v>
+        <v>448.08841057098277</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>15</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C6">
-        <v>19.27201288288552</v>
+        <v>25.819828822280499</v>
       </c>
       <c r="D6">
-        <v>19.01671612591397</v>
+        <v>19.005094449691121</v>
       </c>
       <c r="E6">
-        <v>169.42822344662039</v>
+        <v>410.34501555514032</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>30</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
-        <v>18.84135688424686</v>
+        <v>24.973192167349339</v>
       </c>
       <c r="D7">
-        <v>19.01738064781923</v>
+        <v>19.006768589834952</v>
       </c>
       <c r="E7">
-        <v>153.57681514905721</v>
+        <v>379.20196148010427</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>91</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>18.29596431428007</v>
+        <v>23.620887911319532</v>
       </c>
       <c r="D8">
-        <v>19.018205748321641</v>
+        <v>19.00933143839093</v>
       </c>
       <c r="E8">
-        <v>133.50082909086871</v>
+        <v>329.45436262923761</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>182.5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>18.020514405498261</v>
+        <v>22.26449906207154</v>
       </c>
       <c r="D9">
-        <v>19.01861553762231</v>
+        <v>19.011770766973921</v>
       </c>
       <c r="E9">
-        <v>123.36085356695951</v>
+        <v>279.55092932799568</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>365</v>
+        <v>1.25</v>
       </c>
       <c r="C10">
-        <v>17.784518975876551</v>
+        <v>21.893013889079381</v>
       </c>
       <c r="D10">
-        <v>19.018962961067579</v>
+        <v>19.012416736255449</v>
       </c>
       <c r="E10">
-        <v>114.6729490012323</v>
+        <v>265.88236600657513</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>730</v>
+        <v>2.5</v>
       </c>
       <c r="C11">
-        <v>17.57937711099515</v>
+        <v>20.920191243039991</v>
       </c>
       <c r="D11">
-        <v>19.0192622261055</v>
+        <v>19.01406461249282</v>
       </c>
       <c r="E11">
-        <v>107.12061964127069</v>
+        <v>230.08545844935529</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1825</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>17.346145154786431</v>
+        <v>20.164845430292761</v>
       </c>
       <c r="D12">
-        <v>19.019599391687311</v>
+        <v>19.015301338828682</v>
       </c>
       <c r="E12">
-        <v>98.533844465713756</v>
+        <v>202.28832010303171</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>19.85783929119259</v>
+      </c>
+      <c r="D13">
+        <v>19.015793518348602</v>
+      </c>
+      <c r="E13">
+        <v>190.98959524616859</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7.78</v>
+      </c>
+      <c r="C14">
+        <v>19.768159770421448</v>
+      </c>
+      <c r="D14">
+        <v>19.015936157370419</v>
+      </c>
+      <c r="E14">
+        <v>187.6890431357551</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>19.27201288288552</v>
+      </c>
+      <c r="D15">
+        <v>19.01671612591397</v>
+      </c>
+      <c r="E15">
+        <v>169.42822344662039</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="C16">
+        <v>19.213795448084571</v>
+      </c>
+      <c r="D16">
+        <v>19.016806633590161</v>
+      </c>
+      <c r="E16">
+        <v>167.2854354189322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>28.41</v>
+      </c>
+      <c r="C17">
+        <v>18.872305245487439</v>
+      </c>
+      <c r="D17">
+        <v>19.0173332774256</v>
+      </c>
+      <c r="E17">
+        <v>154.71598157803021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>18.84135688424686</v>
+      </c>
+      <c r="D18">
+        <v>19.01738064781923</v>
+      </c>
+      <c r="E18">
+        <v>153.57681514905721</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>85.25</v>
+      </c>
+      <c r="C19">
+        <v>18.32411490233341</v>
+      </c>
+      <c r="D19">
+        <v>19.01816360761898</v>
+      </c>
+      <c r="E19">
+        <v>134.5370962447613</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>18.29596431428007</v>
+      </c>
+      <c r="D20">
+        <v>19.018205748321641</v>
+      </c>
+      <c r="E20">
+        <v>133.50082909086871</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>176.99</v>
+      </c>
+      <c r="C21">
+        <v>18.031773305057978</v>
+      </c>
+      <c r="D21">
+        <v>19.0185988782384</v>
+      </c>
+      <c r="E21">
+        <v>123.7753292142566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>182.5</v>
+      </c>
+      <c r="C22">
+        <v>18.020514405498261</v>
+      </c>
+      <c r="D22">
+        <v>19.01861553762231</v>
+      </c>
+      <c r="E22">
+        <v>123.36085356695951</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>365</v>
+      </c>
+      <c r="C23">
+        <v>17.784518975876551</v>
+      </c>
+      <c r="D23">
+        <v>19.018962961067579</v>
+      </c>
+      <c r="E23">
+        <v>114.6729490012323</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>367.23</v>
+      </c>
+      <c r="C24">
+        <v>17.782591314822469</v>
+      </c>
+      <c r="D24">
+        <v>19.018965785005289</v>
+      </c>
+      <c r="E24">
+        <v>114.6019830140561</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>730</v>
+      </c>
+      <c r="C25">
+        <v>17.57937711099515</v>
+      </c>
+      <c r="D25">
+        <v>19.0192622261055</v>
+      </c>
+      <c r="E25">
+        <v>107.12061964127069</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>761.72</v>
+      </c>
+      <c r="C26">
+        <v>17.567659703620169</v>
+      </c>
+      <c r="D26">
+        <v>19.01927924308335</v>
+      </c>
+      <c r="E26">
+        <v>106.68923397259719</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1825</v>
+      </c>
+      <c r="C27">
+        <v>17.346145154786431</v>
+      </c>
+      <c r="D27">
+        <v>19.019599391687311</v>
+      </c>
+      <c r="E27">
+        <v>98.533844465713756</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1895.72</v>
+      </c>
+      <c r="C28">
+        <v>17.33726912250307</v>
+      </c>
+      <c r="D28">
+        <v>19.01961215859335</v>
+      </c>
+      <c r="E28">
+        <v>98.207053866511345</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>3650</v>
       </c>
-      <c r="C13">
+      <c r="C29">
         <v>17.193030169521421</v>
       </c>
-      <c r="D13">
+      <c r="D29">
         <v>19.019818964641971</v>
       </c>
-      <c r="E13">
+      <c r="E29">
         <v>92.896512787903191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3931.18</v>
+      </c>
+      <c r="C30">
+        <v>17.177664404125839</v>
+      </c>
+      <c r="D30">
+        <v>19.019840922344759</v>
+      </c>
+      <c r="E30">
+        <v>92.330773666035512</v>
       </c>
     </row>
   </sheetData>
